--- a/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anul 3 Semestrul 2\VVSS\Proiect\Verification-and-Validation-of-Software-Systems\Docs\initial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Semestrul6\VVS\03_PizzaShop\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B4D158-73A8-413F-9B67-F7D2070D9B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D47D672-8D2B-42B2-B5CD-8F435B6183A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -343,9 +343,6 @@
     </r>
   </si>
   <si>
-    <t>Did not modify anything because the thread "addOrders" is set as a Daemon thread and it will be automatically stopped when the app shuts down "addOrders.setDaemon(true);"</t>
-  </si>
-  <si>
     <t>Unnecessary imports should be removed</t>
   </si>
   <si>
@@ -428,6 +425,9 @@
   </si>
   <si>
     <t>The necessary hardware/software requirements are not specified. It is necessary to mention the platform on which the application runs and the dependencies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu </t>
   </si>
 </sst>
 </file>
@@ -714,6 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -756,7 +757,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1150,41 +1150,41 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="41" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.90625" style="6"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1197,10 +1197,10 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="43">
+      <c r="I3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="29">
         <v>234</v>
       </c>
     </row>
@@ -1208,17 +1208,17 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="29">
         <v>234</v>
       </c>
     </row>
@@ -1226,17 +1226,17 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="29">
         <v>234</v>
       </c>
     </row>
@@ -1245,19 +1245,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="29"/>
+      <c r="D6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="29"/>
+      <c r="D7" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="30"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1273,33 +1273,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1311,64 +1311,64 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="29">
+    <row r="13" spans="1:10" ht="28.8">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.2">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.5">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:10" ht="43.2">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.5">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:10" ht="57.6">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="58">
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -1484,35 +1484,35 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.36328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="22.08984375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="22.109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1532,10 +1532,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1546,10 +1546,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="38"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1561,15 +1561,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1769,36 +1769,36 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="58.36328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="26.6328125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1822,10 +1822,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1840,10 +1840,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="41"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1859,19 +1859,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1887,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1898,22 +1898,22 @@
         <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2115,41 +2115,41 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.36328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="59.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="39" style="6" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="49.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="26.6328125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="5" max="5" width="44.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="49.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -2173,10 +2173,10 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -2191,10 +2191,10 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -2210,10 +2210,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10">
@@ -2247,7 +2247,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="155.4" customHeight="1">
@@ -2268,7 +2268,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="102.65" customHeight="1">
+    <row r="12" spans="1:10" ht="102.6" customHeight="1">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -2286,7 +2286,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="29">
+    <row r="13" spans="1:10" ht="28.8">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2322,22 +2322,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="29">
+    <row r="15" spans="1:10" ht="28.8">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2490,11 +2490,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="18"/>
     </row>
     <row r="35" spans="6:6">

--- a/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Semestrul6\VVS\03_PizzaShop\Docs\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verification-and-Validation-of-Software-Systems\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D47D672-8D2B-42B2-B5CD-8F435B6183A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F6EC30-CBEB-4F14-A78F-7F4F04544932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -429,18 +429,49 @@
   <si>
     <t xml:space="preserve">nu </t>
   </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>the PaymentAlert and PaymentOperation classes should be in the GUI package, not the Service package</t>
+  </si>
+  <si>
+    <t>An error handling strategy is not specified.</t>
+  </si>
+  <si>
+    <t>the PizzaService class should be renamed to PaymentService</t>
+  </si>
+  <si>
+    <t>Ambiguous relationships due to the use of double arrows</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,97 +695,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1150,41 +1185,41 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="41" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1208,10 +1243,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1226,10 +1261,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="36"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1245,19 +1280,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1273,7 +1308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:10" ht="45">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1287,7 +1322,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="30">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1311,7 +1346,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="28.8">
+    <row r="13" spans="1:10" ht="30">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1326,7 +1361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.2">
+    <row r="14" spans="1:10" ht="45">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1341,7 +1376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.2">
+    <row r="15" spans="1:10" ht="45">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1356,7 +1391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="57.6">
+    <row r="16" spans="1:10" ht="60">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1480,39 +1515,39 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="22.109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="22.140625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1525,51 +1560,67 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="37"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="40"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>234</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="D7" s="38">
+        <v>45736</v>
+      </c>
+      <c r="E7" s="31"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1585,40 +1636,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="45">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="E11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="3">
@@ -1769,36 +1836,36 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1822,10 +1889,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="41"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1840,10 +1907,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="43"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1859,19 +1926,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1887,7 +1954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:10" ht="30">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1901,7 +1968,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="45">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -2115,41 +2182,41 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="59.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="39" style="6" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="49.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="44.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -2173,10 +2240,10 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="41"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -2191,10 +2258,10 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -2210,10 +2277,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10">
@@ -2250,7 +2317,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="155.4" customHeight="1">
+    <row r="11" spans="1:10" ht="155.44999999999999" customHeight="1">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -2286,7 +2353,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.8">
+    <row r="13" spans="1:10" ht="30">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2322,7 +2389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.8">
+    <row r="15" spans="1:10" ht="30">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2490,11 +2557,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="18"/>
     </row>
     <row r="35" spans="6:6">
@@ -2509,7 +2576,7 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verification-and-Validation-of-Software-Systems\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F6EC30-CBEB-4F14-A78F-7F4F04544932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DB3AE2-6A55-49AC-9CC2-6D655ABA6152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" tabRatio="650" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -452,6 +452,15 @@
   </si>
   <si>
     <t>Ambiguous relationships due to the use of double arrows</t>
+  </si>
+  <si>
+    <t>KitchenGUI/linie 15</t>
+  </si>
+  <si>
+    <t>Metoda KitchenGUI() are acelasi nume ca si clasa, ceea ce duce la confuzie, se poate redenumi metoda kitchenGUI()</t>
+  </si>
+  <si>
+    <t>C05 - Subprogram invocations are violated</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1194,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1674,7 +1683,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="30">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1832,8 +1841,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1983,14 +1992,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="45">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -2182,7 +2197,7 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
